--- a/Neha01.xlsx
+++ b/Neha01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TransitusPC-21\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D90AF41-5C25-4A62-9F9F-AAE66D378002}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D012EE-F74D-4E43-A7A9-F6E1DBFAF3E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="46">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -158,15 +158,6 @@
   </si>
   <si>
     <t>User should be able to validate the Account is deleted</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>Repeated</t>
   </si>
 </sst>
 </file>
@@ -540,7 +531,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,9 +602,6 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
@@ -676,9 +664,6 @@
       <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
@@ -713,9 +698,6 @@
       <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
@@ -778,9 +760,6 @@
       <c r="H12" t="s">
         <v>36</v>
       </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
@@ -826,12 +805,6 @@
       <c r="H15" t="s">
         <v>36</v>
       </c>
-      <c r="I15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
@@ -844,7 +817,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>21</v>
       </c>
@@ -855,7 +828,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -877,14 +850,8 @@
       <c r="H18" t="s">
         <v>16</v>
       </c>
-      <c r="I18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>17</v>
       </c>
@@ -898,7 +865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>17</v>
       </c>
@@ -912,7 +879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>22</v>
       </c>
@@ -923,7 +890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -945,14 +912,8 @@
       <c r="H22" t="s">
         <v>16</v>
       </c>
-      <c r="I22" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>17</v>
       </c>
@@ -966,7 +927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>17</v>
       </c>
@@ -980,7 +941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>22</v>
       </c>
@@ -991,7 +952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1013,14 +974,8 @@
       <c r="H26" t="s">
         <v>29</v>
       </c>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>18</v>
       </c>
@@ -1031,7 +986,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1053,14 +1008,8 @@
       <c r="H28" t="s">
         <v>36</v>
       </c>
-      <c r="I28" t="s">
-        <v>47</v>
-      </c>
-      <c r="J28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>18</v>
       </c>
@@ -1071,7 +1020,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>21</v>
       </c>

--- a/Neha01.xlsx
+++ b/Neha01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TransitusPC-21\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFE12D7-74B9-45A9-86AC-7375CC3A607E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B9CBA2-2627-4B29-BF74-1B4834F6BA5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="46">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -158,22 +158,13 @@
   </si>
   <si>
     <t>User should be able to validate the Account is deleted</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>Repeated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -183,12 +174,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -207,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -215,61 +200,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,7 +590,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,10 +661,6 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
@@ -742,8 +675,6 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
@@ -758,8 +689,6 @@
       <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
@@ -771,8 +700,6 @@
       <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -796,10 +723,6 @@
       <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
@@ -811,8 +734,6 @@
       <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -836,10 +757,6 @@
       <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
@@ -854,8 +771,6 @@
       <c r="H9" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
@@ -870,8 +785,6 @@
       <c r="H10" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
@@ -883,8 +796,6 @@
       <c r="H11" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -908,10 +819,6 @@
       <c r="H12" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
@@ -923,8 +830,6 @@
       <c r="H13" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
@@ -936,8 +841,6 @@
       <c r="H14" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -961,12 +864,6 @@
       <c r="H15" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
@@ -978,10 +875,8 @@
       <c r="H16" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>21</v>
       </c>
@@ -991,10 +886,8 @@
       <c r="H17" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1016,14 +909,8 @@
       <c r="H18" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>17</v>
       </c>
@@ -1036,10 +923,8 @@
       <c r="H19" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>17</v>
       </c>
@@ -1052,10 +937,8 @@
       <c r="H20" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>22</v>
       </c>
@@ -1065,10 +948,8 @@
       <c r="H21" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1090,14 +971,8 @@
       <c r="H22" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>17</v>
       </c>
@@ -1110,10 +985,8 @@
       <c r="H23" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>17</v>
       </c>
@@ -1126,10 +999,8 @@
       <c r="H24" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>22</v>
       </c>
@@ -1139,10 +1010,8 @@
       <c r="H25" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1164,14 +1033,8 @@
       <c r="H26" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>18</v>
       </c>
@@ -1181,10 +1044,8 @@
       <c r="H27" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1206,14 +1067,8 @@
       <c r="H28" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>18</v>
       </c>
@@ -1223,10 +1078,8 @@
       <c r="H29" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>21</v>
       </c>
@@ -1236,8 +1089,6 @@
       <c r="H30" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Neha01.xlsx
+++ b/Neha01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TransitusPC-21\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C9227A-51F6-4057-8E1B-53BE69AADE78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3148B34A-7462-466D-8E82-EA33606E9D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="49">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -158,13 +158,22 @@
   </si>
   <si>
     <t>User should be able to validate the Account is deleted</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Repeated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -174,6 +183,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -192,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -200,13 +215,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,7 +653,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="I2" sqref="I2:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,6 +724,10 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
@@ -675,6 +742,8 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
@@ -689,6 +758,8 @@
       <c r="H4" t="s">
         <v>20</v>
       </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
@@ -700,6 +771,8 @@
       <c r="H5" t="s">
         <v>24</v>
       </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -723,6 +796,10 @@
       <c r="H6" t="s">
         <v>29</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
@@ -734,6 +811,8 @@
       <c r="H7" t="s">
         <v>31</v>
       </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -757,6 +836,10 @@
       <c r="H8" t="s">
         <v>36</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
@@ -771,6 +854,8 @@
       <c r="H9" t="s">
         <v>20</v>
       </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
@@ -785,6 +870,8 @@
       <c r="H10" t="s">
         <v>20</v>
       </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
@@ -796,6 +883,8 @@
       <c r="H11" t="s">
         <v>37</v>
       </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -819,6 +908,10 @@
       <c r="H12" t="s">
         <v>36</v>
       </c>
+      <c r="I12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
@@ -830,6 +923,8 @@
       <c r="H13" t="s">
         <v>43</v>
       </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
@@ -841,6 +936,8 @@
       <c r="H14" t="s">
         <v>45</v>
       </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -864,6 +961,12 @@
       <c r="H15" t="s">
         <v>36</v>
       </c>
+      <c r="I15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
@@ -875,8 +978,10 @@
       <c r="H16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>21</v>
       </c>
@@ -886,8 +991,10 @@
       <c r="H17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -909,8 +1016,14 @@
       <c r="H18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>17</v>
       </c>
@@ -923,8 +1036,10 @@
       <c r="H19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>17</v>
       </c>
@@ -937,8 +1052,10 @@
       <c r="H20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>22</v>
       </c>
@@ -948,8 +1065,10 @@
       <c r="H21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -971,8 +1090,14 @@
       <c r="H22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>17</v>
       </c>
@@ -985,8 +1110,10 @@
       <c r="H23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>17</v>
       </c>
@@ -999,8 +1126,10 @@
       <c r="H24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="2"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>22</v>
       </c>
@@ -1010,8 +1139,10 @@
       <c r="H25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="2"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1033,8 +1164,14 @@
       <c r="H26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>18</v>
       </c>
@@ -1044,8 +1181,10 @@
       <c r="H27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="2"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1067,8 +1206,14 @@
       <c r="H28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>18</v>
       </c>
@@ -1078,8 +1223,10 @@
       <c r="H29" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="2"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>21</v>
       </c>
@@ -1089,6 +1236,8 @@
       <c r="H30" t="s">
         <v>45</v>
       </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
